--- a/Каталог.xlsx
+++ b/Каталог.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yen\Sbis_Auto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CCF820-A887-41A4-B046-FFA2A78DB915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Таблица" sheetId="1" r:id="rId1"/>
@@ -12,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Таблица!$A$1:$F$1</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -967,15 +973,9 @@
     <t>X5235782</t>
   </si>
   <si>
-    <t>ЯИЦО КУРИНОЕ</t>
-  </si>
-  <si>
     <t>X5236168</t>
   </si>
   <si>
-    <t>ЯИЦО ПЕРЕПЕЛИННОЕ</t>
-  </si>
-  <si>
     <t>X5231990</t>
   </si>
   <si>
@@ -1109,17 +1109,19 @@
   </si>
   <si>
     <t>X5979307</t>
+  </si>
+  <si>
+    <t>ЯЙЦО КУРИНОЕ</t>
+  </si>
+  <si>
+    <t>ЯЙЦО ПЕРЕПЕЛИНОЕ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00"/>
-    <numFmt numFmtId="164" formatCode="#,##0.00"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1179,22 +1181,30 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1232,7 +1242,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -1266,6 +1276,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1300,9 +1311,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1475,28 +1487,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2"/>
+  <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="35.7265625" customWidth="1"/>
+    <col min="2" max="2" width="10.26953125" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" customWidth="1"/>
+    <col min="5" max="5" width="25.81640625" customWidth="1"/>
+    <col min="6" max="6" width="15.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1536,7 +1548,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" outlineLevel="1">
+    <row r="3" spans="1:6" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1556,7 +1568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" outlineLevel="2">
+    <row r="4" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
@@ -1576,7 +1588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" outlineLevel="2">
+    <row r="5" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -1596,7 +1608,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" outlineLevel="2">
+    <row r="6" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -1616,7 +1628,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:6" outlineLevel="2">
+    <row r="7" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -1636,7 +1648,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:6" outlineLevel="2">
+    <row r="8" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1656,7 +1668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:6" outlineLevel="2">
+    <row r="9" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1676,7 +1688,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" outlineLevel="2">
+    <row r="10" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>25</v>
       </c>
@@ -1696,7 +1708,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" outlineLevel="2">
+    <row r="11" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
@@ -1716,7 +1728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:6" outlineLevel="2">
+    <row r="12" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
@@ -1736,7 +1748,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:6" outlineLevel="2">
+    <row r="13" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>31</v>
       </c>
@@ -1756,7 +1768,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:6" outlineLevel="2">
+    <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>33</v>
       </c>
@@ -1776,7 +1788,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" outlineLevel="2">
+    <row r="15" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -1796,7 +1808,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:6" outlineLevel="2">
+    <row r="16" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>38</v>
       </c>
@@ -1816,7 +1828,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:6" outlineLevel="2">
+    <row r="17" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>40</v>
       </c>
@@ -1836,7 +1848,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" outlineLevel="2">
+    <row r="18" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
         <v>42</v>
       </c>
@@ -1856,7 +1868,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:6" outlineLevel="2">
+    <row r="19" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
         <v>44</v>
       </c>
@@ -1876,7 +1888,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:6" outlineLevel="2">
+    <row r="20" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -1896,7 +1908,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:6" outlineLevel="2">
+    <row r="21" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
         <v>48</v>
       </c>
@@ -1916,7 +1928,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" outlineLevel="2">
+    <row r="22" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
         <v>50</v>
       </c>
@@ -1936,7 +1948,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:6" outlineLevel="2">
+    <row r="23" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>52</v>
       </c>
@@ -1956,7 +1968,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" outlineLevel="2">
+    <row r="24" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>54</v>
       </c>
@@ -1976,7 +1988,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:6" outlineLevel="2">
+    <row r="25" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -1996,7 +2008,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:6" outlineLevel="2">
+    <row r="26" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>58</v>
       </c>
@@ -2016,7 +2028,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" outlineLevel="2">
+    <row r="27" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>60</v>
       </c>
@@ -2036,7 +2048,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:6" outlineLevel="2">
+    <row r="28" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>62</v>
       </c>
@@ -2056,7 +2068,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" outlineLevel="2">
+    <row r="29" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>64</v>
       </c>
@@ -2076,7 +2088,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:6" outlineLevel="2">
+    <row r="30" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>66</v>
       </c>
@@ -2096,7 +2108,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" outlineLevel="2">
+    <row r="31" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>68</v>
       </c>
@@ -2116,7 +2128,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:6" outlineLevel="2">
+    <row r="32" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>70</v>
       </c>
@@ -2136,7 +2148,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:6" outlineLevel="2">
+    <row r="33" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>72</v>
       </c>
@@ -2156,7 +2168,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:6" outlineLevel="2">
+    <row r="34" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
@@ -2176,7 +2188,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" outlineLevel="2">
+    <row r="35" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>76</v>
       </c>
@@ -2196,7 +2208,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="36" spans="1:6" outlineLevel="2">
+    <row r="36" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>78</v>
       </c>
@@ -2216,7 +2228,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:6" outlineLevel="2">
+    <row r="37" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>80</v>
       </c>
@@ -2227,7 +2239,7 @@
         <v>81</v>
       </c>
       <c r="D37" s="4">
-        <v>610.2</v>
+        <v>610.20000000000005</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>13</v>
@@ -2236,7 +2248,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="38" spans="1:6" outlineLevel="2">
+    <row r="38" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>82</v>
       </c>
@@ -2256,7 +2268,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:6" outlineLevel="2">
+    <row r="39" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>84</v>
       </c>
@@ -2276,7 +2288,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="40" spans="1:6" outlineLevel="2">
+    <row r="40" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>86</v>
       </c>
@@ -2296,7 +2308,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:6" outlineLevel="2">
+    <row r="41" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>88</v>
       </c>
@@ -2316,7 +2328,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:6" outlineLevel="2">
+    <row r="42" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
         <v>90</v>
       </c>
@@ -2336,7 +2348,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="43" spans="1:6" outlineLevel="2">
+    <row r="43" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
         <v>92</v>
       </c>
@@ -2356,7 +2368,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:6" outlineLevel="2">
+    <row r="44" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>94</v>
       </c>
@@ -2376,7 +2388,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="45" spans="1:6" outlineLevel="2">
+    <row r="45" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>96</v>
       </c>
@@ -2396,7 +2408,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="46" spans="1:6" outlineLevel="2">
+    <row r="46" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
         <v>98</v>
       </c>
@@ -2416,7 +2428,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:6" outlineLevel="2">
+    <row r="47" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
         <v>100</v>
       </c>
@@ -2436,7 +2448,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="48" spans="1:6" outlineLevel="2">
+    <row r="48" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
         <v>102</v>
       </c>
@@ -2456,7 +2468,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:6" outlineLevel="2">
+    <row r="49" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
         <v>104</v>
       </c>
@@ -2476,7 +2488,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="50" spans="1:6" outlineLevel="2">
+    <row r="50" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
         <v>106</v>
       </c>
@@ -2496,7 +2508,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="51" spans="1:6" outlineLevel="2">
+    <row r="51" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
         <v>108</v>
       </c>
@@ -2516,7 +2528,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="52" spans="1:6" outlineLevel="2">
+    <row r="52" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
         <v>110</v>
       </c>
@@ -2536,7 +2548,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:6" outlineLevel="1">
+    <row r="53" spans="1:6" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>112</v>
       </c>
@@ -2556,7 +2568,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="54" spans="1:6" outlineLevel="2">
+    <row r="54" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
         <v>114</v>
       </c>
@@ -2576,7 +2588,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="55" spans="1:6" outlineLevel="2">
+    <row r="55" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
         <v>116</v>
       </c>
@@ -2596,7 +2608,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="56" spans="1:6" outlineLevel="2">
+    <row r="56" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
         <v>118</v>
       </c>
@@ -2616,7 +2628,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="57" spans="1:6" outlineLevel="2">
+    <row r="57" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
         <v>120</v>
       </c>
@@ -2636,7 +2648,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="58" spans="1:6" outlineLevel="2">
+    <row r="58" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
         <v>122</v>
       </c>
@@ -2656,7 +2668,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="59" spans="1:6" outlineLevel="2">
+    <row r="59" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
         <v>124</v>
       </c>
@@ -2676,7 +2688,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:6" outlineLevel="2">
+    <row r="60" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
         <v>126</v>
       </c>
@@ -2696,7 +2708,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="61" spans="1:6" outlineLevel="2">
+    <row r="61" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>128</v>
       </c>
@@ -2707,7 +2719,7 @@
         <v>129</v>
       </c>
       <c r="D61" s="4">
-        <v>2307.68</v>
+        <v>2307.6799999999998</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>13</v>
@@ -2716,7 +2728,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="62" spans="1:6" outlineLevel="2">
+    <row r="62" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
         <v>130</v>
       </c>
@@ -2736,7 +2748,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="63" spans="1:6" outlineLevel="2">
+    <row r="63" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>132</v>
       </c>
@@ -2756,7 +2768,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:6" outlineLevel="2">
+    <row r="64" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
         <v>134</v>
       </c>
@@ -2776,7 +2788,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:6" outlineLevel="2">
+    <row r="65" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
         <v>136</v>
       </c>
@@ -2796,7 +2808,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="66" spans="1:6" outlineLevel="2">
+    <row r="66" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
         <v>138</v>
       </c>
@@ -2816,7 +2828,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="67" spans="1:6" outlineLevel="2">
+    <row r="67" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
         <v>140</v>
       </c>
@@ -2836,7 +2848,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="68" spans="1:6" outlineLevel="2">
+    <row r="68" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>142</v>
       </c>
@@ -2856,7 +2868,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="69" spans="1:6" outlineLevel="2">
+    <row r="69" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>144</v>
       </c>
@@ -2876,7 +2888,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="70" spans="1:6" outlineLevel="2">
+    <row r="70" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>146</v>
       </c>
@@ -2896,7 +2908,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:6" outlineLevel="2">
+    <row r="71" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>148</v>
       </c>
@@ -2916,7 +2928,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="72" spans="1:6" outlineLevel="2">
+    <row r="72" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>150</v>
       </c>
@@ -2936,7 +2948,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="73" spans="1:6" outlineLevel="2">
+    <row r="73" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
         <v>152</v>
       </c>
@@ -2956,7 +2968,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="74" spans="1:6" outlineLevel="2">
+    <row r="74" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>154</v>
       </c>
@@ -2967,7 +2979,7 @@
         <v>155</v>
       </c>
       <c r="D74" s="4">
-        <v>67.15000000000001</v>
+        <v>67.150000000000006</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>13</v>
@@ -2976,7 +2988,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="75" spans="1:6" outlineLevel="2">
+    <row r="75" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>156</v>
       </c>
@@ -2996,7 +3008,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="76" spans="1:6" outlineLevel="2">
+    <row r="76" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>158</v>
       </c>
@@ -3016,7 +3028,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="77" spans="1:6" outlineLevel="2">
+    <row r="77" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
         <v>160</v>
       </c>
@@ -3027,7 +3039,7 @@
         <v>161</v>
       </c>
       <c r="D77" s="4">
-        <v>613.3099999999999</v>
+        <v>613.30999999999995</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>13</v>
@@ -3036,7 +3048,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="78" spans="1:6" outlineLevel="2">
+    <row r="78" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
         <v>162</v>
       </c>
@@ -3047,7 +3059,7 @@
         <v>163</v>
       </c>
       <c r="D78" s="4">
-        <v>669.9400000000001</v>
+        <v>669.94</v>
       </c>
       <c r="E78" s="3" t="s">
         <v>13</v>
@@ -3056,7 +3068,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="79" spans="1:6" outlineLevel="2">
+    <row r="79" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>164</v>
       </c>
@@ -3076,7 +3088,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="80" spans="1:6" outlineLevel="2">
+    <row r="80" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>166</v>
       </c>
@@ -3096,7 +3108,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="81" spans="1:6" outlineLevel="2">
+    <row r="81" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>168</v>
       </c>
@@ -3116,7 +3128,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="82" spans="1:6" outlineLevel="2">
+    <row r="82" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
         <v>170</v>
       </c>
@@ -3127,7 +3139,7 @@
         <v>171</v>
       </c>
       <c r="D82" s="4">
-        <v>74.93000000000001</v>
+        <v>74.930000000000007</v>
       </c>
       <c r="E82" s="3" t="s">
         <v>35</v>
@@ -3136,7 +3148,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="83" spans="1:6" outlineLevel="2">
+    <row r="83" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
         <v>172</v>
       </c>
@@ -3156,7 +3168,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="1:6" outlineLevel="2">
+    <row r="84" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
         <v>174</v>
       </c>
@@ -3176,7 +3188,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="85" spans="1:6" outlineLevel="2">
+    <row r="85" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
         <v>176</v>
       </c>
@@ -3196,7 +3208,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="86" spans="1:6" outlineLevel="2">
+    <row r="86" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
         <v>178</v>
       </c>
@@ -3207,7 +3219,7 @@
         <v>179</v>
       </c>
       <c r="D86" s="4">
-        <v>97.31999999999999</v>
+        <v>97.32</v>
       </c>
       <c r="E86" s="3" t="s">
         <v>13</v>
@@ -3216,7 +3228,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="87" spans="1:6" outlineLevel="2">
+    <row r="87" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
         <v>180</v>
       </c>
@@ -3236,7 +3248,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="88" spans="1:6" outlineLevel="2">
+    <row r="88" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
         <v>182</v>
       </c>
@@ -3256,7 +3268,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="89" spans="1:6" outlineLevel="2">
+    <row r="89" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
         <v>184</v>
       </c>
@@ -3276,7 +3288,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="90" spans="1:6" outlineLevel="2">
+    <row r="90" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
         <v>186</v>
       </c>
@@ -3296,7 +3308,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="91" spans="1:6" outlineLevel="2">
+    <row r="91" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
         <v>188</v>
       </c>
@@ -3316,7 +3328,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:6" outlineLevel="1">
+    <row r="92" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
         <v>190</v>
       </c>
@@ -3336,7 +3348,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="93" spans="1:6" outlineLevel="1">
+    <row r="93" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
         <v>192</v>
       </c>
@@ -3356,7 +3368,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="94" spans="1:6" outlineLevel="1">
+    <row r="94" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
         <v>194</v>
       </c>
@@ -3376,7 +3388,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="95" spans="1:6" outlineLevel="1">
+    <row r="95" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
         <v>196</v>
       </c>
@@ -3396,7 +3408,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="96" spans="1:6" outlineLevel="1">
+    <row r="96" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
         <v>198</v>
       </c>
@@ -3416,7 +3428,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="97" spans="1:6" outlineLevel="1">
+    <row r="97" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
         <v>200</v>
       </c>
@@ -3436,7 +3448,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="98" spans="1:6" outlineLevel="1">
+    <row r="98" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
         <v>202</v>
       </c>
@@ -3456,7 +3468,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="99" spans="1:6" outlineLevel="1">
+    <row r="99" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>204</v>
       </c>
@@ -3476,7 +3488,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="100" spans="1:6" outlineLevel="1">
+    <row r="100" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
         <v>206</v>
       </c>
@@ -3496,7 +3508,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="101" spans="1:6" outlineLevel="1">
+    <row r="101" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
         <v>208</v>
       </c>
@@ -3516,7 +3528,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="102" spans="1:6" outlineLevel="1">
+    <row r="102" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
         <v>210</v>
       </c>
@@ -3536,7 +3548,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="103" spans="1:6" outlineLevel="1">
+    <row r="103" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
         <v>212</v>
       </c>
@@ -3556,7 +3568,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="104" spans="1:6" outlineLevel="1">
+    <row r="104" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
         <v>214</v>
       </c>
@@ -3576,7 +3588,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="105" spans="1:6" outlineLevel="1">
+    <row r="105" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
         <v>216</v>
       </c>
@@ -3596,7 +3608,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="106" spans="1:6" outlineLevel="1">
+    <row r="106" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
         <v>218</v>
       </c>
@@ -3616,7 +3628,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="107" spans="1:6" outlineLevel="1">
+    <row r="107" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
         <v>220</v>
       </c>
@@ -3636,7 +3648,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="108" spans="1:6" outlineLevel="1">
+    <row r="108" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
         <v>222</v>
       </c>
@@ -3656,7 +3668,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="109" spans="1:6" outlineLevel="1">
+    <row r="109" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>224</v>
       </c>
@@ -3676,7 +3688,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="110" spans="1:6" outlineLevel="1">
+    <row r="110" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
         <v>226</v>
       </c>
@@ -3696,7 +3708,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="111" spans="1:6" outlineLevel="1">
+    <row r="111" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
         <v>228</v>
       </c>
@@ -3716,7 +3728,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="112" spans="1:6" outlineLevel="1">
+    <row r="112" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
         <v>230</v>
       </c>
@@ -3736,7 +3748,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="113" spans="1:6" outlineLevel="1">
+    <row r="113" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
         <v>232</v>
       </c>
@@ -3756,7 +3768,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="114" spans="1:6" outlineLevel="1">
+    <row r="114" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
         <v>234</v>
       </c>
@@ -3776,7 +3788,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="115" spans="1:6" outlineLevel="1">
+    <row r="115" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
         <v>236</v>
       </c>
@@ -3796,7 +3808,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="116" spans="1:6" outlineLevel="1">
+    <row r="116" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
         <v>238</v>
       </c>
@@ -3816,7 +3828,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="117" spans="1:6" outlineLevel="1">
+    <row r="117" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
         <v>240</v>
       </c>
@@ -3836,7 +3848,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="118" spans="1:6" outlineLevel="1">
+    <row r="118" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
         <v>242</v>
       </c>
@@ -3856,7 +3868,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="119" spans="1:6" outlineLevel="1">
+    <row r="119" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
         <v>244</v>
       </c>
@@ -3876,7 +3888,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="120" spans="1:6" outlineLevel="1">
+    <row r="120" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
         <v>246</v>
       </c>
@@ -3896,7 +3908,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="121" spans="1:6" outlineLevel="1">
+    <row r="121" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
         <v>248</v>
       </c>
@@ -3916,7 +3928,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="122" spans="1:6" outlineLevel="1">
+    <row r="122" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
         <v>250</v>
       </c>
@@ -3936,7 +3948,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="123" spans="1:6" outlineLevel="1">
+    <row r="123" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
         <v>252</v>
       </c>
@@ -3956,7 +3968,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="124" spans="1:6" outlineLevel="1">
+    <row r="124" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
         <v>254</v>
       </c>
@@ -3976,7 +3988,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="125" spans="1:6" outlineLevel="1">
+    <row r="125" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
         <v>256</v>
       </c>
@@ -3996,7 +4008,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="126" spans="1:6" outlineLevel="1">
+    <row r="126" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
         <v>258</v>
       </c>
@@ -4016,7 +4028,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="127" spans="1:6" outlineLevel="1">
+    <row r="127" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
         <v>260</v>
       </c>
@@ -4036,7 +4048,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="128" spans="1:6" outlineLevel="1">
+    <row r="128" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
         <v>262</v>
       </c>
@@ -4056,7 +4068,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="129" spans="1:6" outlineLevel="1">
+    <row r="129" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
         <v>264</v>
       </c>
@@ -4076,7 +4088,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="130" spans="1:6" outlineLevel="1">
+    <row r="130" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
         <v>266</v>
       </c>
@@ -4096,7 +4108,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="131" spans="1:6" outlineLevel="1">
+    <row r="131" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
         <v>268</v>
       </c>
@@ -4116,7 +4128,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="132" spans="1:6" outlineLevel="1">
+    <row r="132" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
         <v>270</v>
       </c>
@@ -4136,7 +4148,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="133" spans="1:6" outlineLevel="1">
+    <row r="133" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
         <v>272</v>
       </c>
@@ -4156,7 +4168,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="134" spans="1:6" outlineLevel="1">
+    <row r="134" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
         <v>274</v>
       </c>
@@ -4176,7 +4188,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="135" spans="1:6" outlineLevel="1">
+    <row r="135" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
         <v>276</v>
       </c>
@@ -4196,7 +4208,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="136" spans="1:6" outlineLevel="1">
+    <row r="136" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
         <v>278</v>
       </c>
@@ -4216,7 +4228,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="137" spans="1:6" outlineLevel="1">
+    <row r="137" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
         <v>280</v>
       </c>
@@ -4236,7 +4248,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="138" spans="1:6" outlineLevel="1">
+    <row r="138" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
         <v>282</v>
       </c>
@@ -4256,7 +4268,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="139" spans="1:6" outlineLevel="1">
+    <row r="139" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
         <v>284</v>
       </c>
@@ -4276,7 +4288,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="140" spans="1:6" outlineLevel="1">
+    <row r="140" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
         <v>286</v>
       </c>
@@ -4296,7 +4308,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="141" spans="1:6" outlineLevel="1">
+    <row r="141" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
         <v>288</v>
       </c>
@@ -4316,7 +4328,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="142" spans="1:6" outlineLevel="1">
+    <row r="142" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
         <v>290</v>
       </c>
@@ -4336,7 +4348,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="143" spans="1:6" outlineLevel="1">
+    <row r="143" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
         <v>292</v>
       </c>
@@ -4356,7 +4368,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="144" spans="1:6" outlineLevel="1">
+    <row r="144" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
         <v>294</v>
       </c>
@@ -4376,7 +4388,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="145" spans="1:6" outlineLevel="1">
+    <row r="145" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
         <v>296</v>
       </c>
@@ -4396,7 +4408,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="146" spans="1:6" outlineLevel="1">
+    <row r="146" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
         <v>298</v>
       </c>
@@ -4416,7 +4428,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="147" spans="1:6" outlineLevel="1">
+    <row r="147" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
         <v>300</v>
       </c>
@@ -4436,7 +4448,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="148" spans="1:6" outlineLevel="1">
+    <row r="148" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
         <v>302</v>
       </c>
@@ -4456,7 +4468,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="149" spans="1:6" outlineLevel="1">
+    <row r="149" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
         <v>304</v>
       </c>
@@ -4476,7 +4488,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="150" spans="1:6" outlineLevel="1">
+    <row r="150" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
         <v>306</v>
       </c>
@@ -4496,7 +4508,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="151" spans="1:6" outlineLevel="1">
+    <row r="151" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
         <v>308</v>
       </c>
@@ -4516,7 +4528,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="152" spans="1:6" outlineLevel="1">
+    <row r="152" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
         <v>310</v>
       </c>
@@ -4536,7 +4548,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="153" spans="1:6" outlineLevel="1">
+    <row r="153" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
         <v>312</v>
       </c>
@@ -4556,7 +4568,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="154" spans="1:6" outlineLevel="1">
+    <row r="154" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
         <v>314</v>
       </c>
@@ -4576,15 +4588,15 @@
         <v>315</v>
       </c>
     </row>
-    <row r="155" spans="1:6" outlineLevel="1">
+    <row r="155" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="D155" s="4">
         <v>8</v>
@@ -4593,18 +4605,18 @@
         <v>20</v>
       </c>
       <c r="F155" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>317</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" outlineLevel="1">
-      <c r="A156" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="D156" s="4">
         <v>7.5</v>
@@ -4613,18 +4625,18 @@
         <v>20</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" outlineLevel="1">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B157" s="4">
         <v>0</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D157" s="4">
         <v>630.01</v>
@@ -4633,18 +4645,18 @@
         <v>13</v>
       </c>
       <c r="F157" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>321</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" outlineLevel="1">
-      <c r="A158" s="3" t="s">
-        <v>322</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="D158" s="4">
         <v>328.3</v>
@@ -4653,38 +4665,38 @@
         <v>13</v>
       </c>
       <c r="F158" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" outlineLevel="1">
-      <c r="A159" s="3" t="s">
+      <c r="D159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3" t="s">
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="D159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E159" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F159" s="3" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" outlineLevel="1">
-      <c r="A160" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="D160" s="4">
         <v>105.57</v>
@@ -4693,18 +4705,18 @@
         <v>35</v>
       </c>
       <c r="F160" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" outlineLevel="1">
-      <c r="A161" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="D161" s="4">
         <v>500</v>
@@ -4713,18 +4725,18 @@
         <v>13</v>
       </c>
       <c r="F161" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>329</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" outlineLevel="1">
-      <c r="A162" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="D162" s="4">
         <v>1800</v>
@@ -4733,18 +4745,18 @@
         <v>13</v>
       </c>
       <c r="F162" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>331</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" outlineLevel="1">
-      <c r="A163" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="D163" s="4">
         <v>700.08</v>
@@ -4753,18 +4765,18 @@
         <v>13</v>
       </c>
       <c r="F163" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>333</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" outlineLevel="1">
-      <c r="A164" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="D164" s="4">
         <v>650</v>
@@ -4773,18 +4785,18 @@
         <v>13</v>
       </c>
       <c r="F164" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>335</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" outlineLevel="1">
-      <c r="A165" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="D165" s="4">
         <v>211.11</v>
@@ -4793,18 +4805,18 @@
         <v>13</v>
       </c>
       <c r="F165" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>337</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" outlineLevel="1">
-      <c r="A166" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="D166" s="4">
         <v>380</v>
@@ -4813,18 +4825,18 @@
         <v>20</v>
       </c>
       <c r="F166" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>339</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" outlineLevel="1">
-      <c r="A167" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="D167" s="4">
         <v>110</v>
@@ -4833,18 +4845,18 @@
         <v>35</v>
       </c>
       <c r="F167" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>341</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" outlineLevel="1">
-      <c r="A168" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="D168" s="4">
         <v>100</v>
@@ -4853,18 +4865,18 @@
         <v>20</v>
       </c>
       <c r="F168" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>343</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" outlineLevel="1">
-      <c r="A169" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>7</v>
@@ -4873,18 +4885,18 @@
         <v>35</v>
       </c>
       <c r="F169" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>345</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" outlineLevel="1">
-      <c r="A170" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="D170" s="4">
         <v>250</v>
@@ -4893,18 +4905,18 @@
         <v>13</v>
       </c>
       <c r="F170" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A171" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171" s="3" t="s">
         <v>347</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" outlineLevel="1">
-      <c r="A171" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>7</v>
@@ -4913,18 +4925,18 @@
         <v>20</v>
       </c>
       <c r="F171" s="3" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>349</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" outlineLevel="1">
-      <c r="A172" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="D172" s="4">
         <v>483.3</v>
@@ -4933,18 +4945,18 @@
         <v>13</v>
       </c>
       <c r="F172" s="3" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A173" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>351</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" outlineLevel="1">
-      <c r="A173" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>7</v>
@@ -4953,18 +4965,18 @@
         <v>35</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" outlineLevel="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B174" s="4">
         <v>0</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D174" s="4">
         <v>100</v>
@@ -4973,18 +4985,18 @@
         <v>13</v>
       </c>
       <c r="F174" s="3" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A175" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" outlineLevel="1">
-      <c r="A175" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="D175" s="4">
         <v>100</v>
@@ -4993,18 +5005,18 @@
         <v>13</v>
       </c>
       <c r="F175" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A176" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>357</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" outlineLevel="1">
-      <c r="A176" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>359</v>
       </c>
       <c r="D176" s="4">
         <v>175</v>
@@ -5013,18 +5025,18 @@
         <v>13</v>
       </c>
       <c r="F176" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A177" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>359</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" outlineLevel="1">
-      <c r="A177" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="D177" s="4">
         <v>458.31</v>
@@ -5033,18 +5045,18 @@
         <v>13</v>
       </c>
       <c r="F177" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
+      <c r="A178" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>361</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" outlineLevel="1">
-      <c r="A178" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="D178" s="4">
         <v>200</v>
@@ -5053,11 +5065,11 @@
         <v>13</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Каталог.xlsx
+++ b/Каталог.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yen\Sbis_Auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CCF820-A887-41A4-B046-FFA2A78DB915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C309D6-92E1-435A-A513-56CD1B5D98BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1494,8 +1494,8 @@
   <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A151" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A159" sqref="A159"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
@@ -4632,9 +4632,7 @@
       <c r="A157" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="B157" s="4">
-        <v>0</v>
-      </c>
+      <c r="B157" s="4"/>
       <c r="C157" s="3" t="s">
         <v>319</v>
       </c>
@@ -4972,9 +4970,7 @@
       <c r="A174" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B174" s="4">
-        <v>0</v>
-      </c>
+      <c r="B174" s="4"/>
       <c r="C174" s="3" t="s">
         <v>353</v>
       </c>

--- a/Каталог.xlsx
+++ b/Каталог.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yen\Sbis_Auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C309D6-92E1-435A-A513-56CD1B5D98BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4595F3B6-E3D1-42F9-B82A-01DDAE053105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1114,7 +1114,7 @@
     <t>ЯЙЦО КУРИНОЕ</t>
   </si>
   <si>
-    <t>ЯЙЦО ПЕРЕПЕЛИНОЕ</t>
+    <t>ЯЙЦО ПЕРЕПЕЛИННОЕ</t>
   </si>
 </sst>
 </file>
@@ -1494,8 +1494,8 @@
   <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B174" sqref="B174"/>
+      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="2" x14ac:dyDescent="0.35"/>

--- a/Каталог.xlsx
+++ b/Каталог.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yen\Sbis_Auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4595F3B6-E3D1-42F9-B82A-01DDAE053105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493A9D77-01AC-4F80-84C5-B2872CC82F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1114,7 +1114,7 @@
     <t>ЯЙЦО КУРИНОЕ</t>
   </si>
   <si>
-    <t>ЯЙЦО ПЕРЕПЕЛИННОЕ</t>
+    <t>ЯЙЦО ПЕРЕПЕЛИНОЕ</t>
   </si>
 </sst>
 </file>
@@ -1494,7 +1494,7 @@
   <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A140" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>

--- a/Каталог.xlsx
+++ b/Каталог.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yen\Sbis_Auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493A9D77-01AC-4F80-84C5-B2872CC82F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05126006-532E-454D-9307-D3C455BBCBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="364">
   <si>
     <t>Наименование</t>
   </si>
@@ -1494,8 +1494,8 @@
   <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A156" sqref="A156"/>
+      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
@@ -3818,8 +3818,8 @@
       <c r="C116" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D116" s="4" t="s">
-        <v>7</v>
+      <c r="D116" s="4">
+        <v>120</v>
       </c>
       <c r="E116" s="3" t="s">
         <v>13</v>

--- a/Каталог.xlsx
+++ b/Каталог.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yen\Sbis_Auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05126006-532E-454D-9307-D3C455BBCBBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57840586-61DA-49CB-B748-BF945909D35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1494,8 +1494,8 @@
   <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A94" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D117" sqref="D117"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
@@ -3818,9 +3818,7 @@
       <c r="C116" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="D116" s="4">
-        <v>120</v>
-      </c>
+      <c r="D116" s="4"/>
       <c r="E116" s="3" t="s">
         <v>13</v>
       </c>

--- a/Каталог.xlsx
+++ b/Каталог.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yen\Sbis_Auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57840586-61DA-49CB-B748-BF945909D35E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8A836F-6EAE-4398-A39B-FB5E461AB65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1045,27 +1045,15 @@
     <t>X6480223</t>
   </si>
   <si>
-    <t>Лайм ( кухня)</t>
-  </si>
-  <si>
     <t>X4551833</t>
   </si>
   <si>
-    <t>Кола ( кухня)</t>
-  </si>
-  <si>
     <t>X4592179</t>
   </si>
   <si>
-    <t>Лимон ( кухня)</t>
-  </si>
-  <si>
     <t>X4630238</t>
   </si>
   <si>
-    <t>Кофе ( кухня)</t>
-  </si>
-  <si>
     <t>X4686206</t>
   </si>
   <si>
@@ -1115,6 +1103,18 @@
   </si>
   <si>
     <t>ЯЙЦО ПЕРЕПЕЛИНОЕ</t>
+  </si>
+  <si>
+    <t>Лайм (кухня)</t>
+  </si>
+  <si>
+    <t>Кола (кухня)</t>
+  </si>
+  <si>
+    <t>Лимон (кухня)</t>
+  </si>
+  <si>
+    <t>Кофе (кухня)</t>
   </si>
 </sst>
 </file>
@@ -1494,8 +1494,8 @@
   <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D116" sqref="D116"/>
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A175" sqref="A175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
@@ -4588,7 +4588,7 @@
     </row>
     <row r="155" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>7</v>
@@ -4608,7 +4608,7 @@
     </row>
     <row r="156" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>7</v>
@@ -4846,13 +4846,13 @@
     </row>
     <row r="168" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B168" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="D168" s="4">
         <v>100</v>
@@ -4861,18 +4861,18 @@
         <v>20</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="169" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>342</v>
+        <v>361</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>7</v>
@@ -4881,18 +4881,18 @@
         <v>35</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="170" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>344</v>
+        <v>362</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D170" s="4">
         <v>250</v>
@@ -4901,18 +4901,18 @@
         <v>13</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="171" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>7</v>
@@ -4921,18 +4921,18 @@
         <v>20</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
     </row>
     <row r="172" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D172" s="4">
         <v>483.3</v>
@@ -4941,18 +4941,18 @@
         <v>13</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
     </row>
     <row r="173" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>7</v>
@@ -4961,16 +4961,16 @@
         <v>35</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="174" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D174" s="4">
         <v>100</v>
@@ -4979,18 +4979,18 @@
         <v>13</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="175" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D175" s="4">
         <v>100</v>
@@ -4999,18 +4999,18 @@
         <v>13</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="176" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D176" s="4">
         <v>175</v>
@@ -5019,18 +5019,18 @@
         <v>13</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
     <row r="177" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D177" s="4">
         <v>458.31</v>
@@ -5039,18 +5039,18 @@
         <v>13</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="178" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D178" s="4">
         <v>200</v>
@@ -5059,7 +5059,7 @@
         <v>13</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/Каталог.xlsx
+++ b/Каталог.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yen\Sbis_Auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD8A836F-6EAE-4398-A39B-FB5E461AB65F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B21CA7-35FD-41ED-B7FF-595AECEB1F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -88,9 +88,6 @@
     <t>шт</t>
   </si>
   <si>
-    <t>БУЛКА ЧИАБАТА</t>
-  </si>
-  <si>
     <t>X5232225</t>
   </si>
   <si>
@@ -391,9 +388,6 @@
     <t>X5238499</t>
   </si>
   <si>
-    <t>КОТЛЕТА ГОВЯЖЬЯ БУРГЕР  П/Ф</t>
-  </si>
-  <si>
     <t>X5235745</t>
   </si>
   <si>
@@ -1115,6 +1109,12 @@
   </si>
   <si>
     <t>Кофе (кухня)</t>
+  </si>
+  <si>
+    <t>БУЛКА ЧИАБАТТА</t>
+  </si>
+  <si>
+    <t>КОТЛЕТА ГОВЯЖЬЯ БУРГЕР П/Ф</t>
   </si>
 </sst>
 </file>
@@ -1494,8 +1494,8 @@
   <dimension ref="A1:F178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A175" sqref="A175"/>
+      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
@@ -1650,13 +1650,13 @@
     </row>
     <row r="8" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="D8" s="4">
         <v>46.49</v>
@@ -1665,18 +1665,18 @@
         <v>20</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="D9" s="4">
         <v>712</v>
@@ -1685,18 +1685,18 @@
         <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="D10" s="4">
         <v>503.78</v>
@@ -1705,18 +1705,18 @@
         <v>13</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="D11" s="4">
         <v>1250</v>
@@ -1725,18 +1725,18 @@
         <v>13</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>29</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="D12" s="4">
         <v>224</v>
@@ -1745,18 +1745,18 @@
         <v>13</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>31</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="D13" s="4">
         <v>240</v>
@@ -1765,38 +1765,38 @@
         <v>13</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
       </c>
       <c r="D14" s="4">
         <v>261.5</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="D15" s="4">
         <v>744</v>
@@ -1805,18 +1805,18 @@
         <v>13</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
       </c>
       <c r="D16" s="4">
         <v>1120</v>
@@ -1825,18 +1825,18 @@
         <v>13</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="D17" s="4">
         <v>1325</v>
@@ -1845,18 +1845,18 @@
         <v>13</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>42</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>43</v>
       </c>
       <c r="D18" s="4">
         <v>1080</v>
@@ -1865,18 +1865,18 @@
         <v>13</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="D19" s="4">
         <v>400</v>
@@ -1885,18 +1885,18 @@
         <v>13</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A20" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="D20" s="4">
         <v>2220</v>
@@ -1905,18 +1905,18 @@
         <v>13</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="D21" s="4">
         <v>607</v>
@@ -1925,18 +1925,18 @@
         <v>13</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A22" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>51</v>
       </c>
       <c r="D22" s="4">
         <v>372</v>
@@ -1945,18 +1945,18 @@
         <v>13</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="D23" s="4">
         <v>180</v>
@@ -1965,38 +1965,38 @@
         <v>13</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="D24" s="4">
         <v>730.39</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>57</v>
       </c>
       <c r="D25" s="4">
         <v>487</v>
@@ -2005,18 +2005,18 @@
         <v>13</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D26" s="4">
         <v>314.99</v>
@@ -2025,18 +2025,18 @@
         <v>13</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="D27" s="4">
         <v>838.98</v>
@@ -2045,38 +2045,38 @@
         <v>13</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="D28" s="4">
         <v>246</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="D29" s="4">
         <v>272</v>
@@ -2085,38 +2085,38 @@
         <v>13</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>67</v>
       </c>
       <c r="D30" s="4">
         <v>790</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>68</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>69</v>
       </c>
       <c r="D31" s="4">
         <v>945.48</v>
@@ -2125,98 +2125,98 @@
         <v>13</v>
       </c>
       <c r="F31" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="D32" s="4">
         <v>228</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="D33" s="4">
         <v>285</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="D34" s="4">
         <v>488.15</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>77</v>
       </c>
       <c r="D35" s="4">
         <v>329.45</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D36" s="4">
         <v>293.01</v>
@@ -2225,18 +2225,18 @@
         <v>13</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D37" s="4">
         <v>610.20000000000005</v>
@@ -2245,18 +2245,18 @@
         <v>13</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D38" s="4">
         <v>755</v>
@@ -2265,18 +2265,18 @@
         <v>20</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>85</v>
       </c>
       <c r="D39" s="4">
         <v>194</v>
@@ -2285,18 +2285,18 @@
         <v>13</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D40" s="4">
         <v>597.5</v>
@@ -2305,19 +2305,19 @@
         <v>13</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>89</v>
-      </c>
       <c r="D41" s="4" t="s">
         <v>7</v>
       </c>
@@ -2325,19 +2325,19 @@
         <v>13</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>91</v>
-      </c>
       <c r="D42" s="4" t="s">
         <v>7</v>
       </c>
@@ -2345,18 +2345,18 @@
         <v>13</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D43" s="4">
         <v>503.5</v>
@@ -2365,18 +2365,18 @@
         <v>13</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="44" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D44" s="4">
         <v>645</v>
@@ -2385,18 +2385,18 @@
         <v>13</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D45" s="4">
         <v>1120</v>
@@ -2405,18 +2405,18 @@
         <v>13</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>98</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>99</v>
       </c>
       <c r="D46" s="4">
         <v>595</v>
@@ -2425,38 +2425,38 @@
         <v>13</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A47" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="3" t="s">
         <v>100</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>101</v>
       </c>
       <c r="D47" s="4">
         <v>343.5</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A48" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>102</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>103</v>
       </c>
       <c r="D48" s="4">
         <v>1637.55</v>
@@ -2465,18 +2465,18 @@
         <v>13</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="D49" s="4">
         <v>505</v>
@@ -2485,18 +2485,18 @@
         <v>13</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="D50" s="4">
         <v>446.81</v>
@@ -2505,18 +2505,18 @@
         <v>13</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="51" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A51" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="D51" s="4">
         <v>184.86</v>
@@ -2525,18 +2525,18 @@
         <v>20</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="52" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="3" t="s">
         <v>110</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="D52" s="4">
         <v>840</v>
@@ -2545,38 +2545,38 @@
         <v>13</v>
       </c>
       <c r="F52" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="15.5" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" s="1" t="s">
         <v>112</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>114</v>
-      </c>
-      <c r="B54" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>115</v>
       </c>
       <c r="D54" s="4">
         <v>76</v>
@@ -2585,38 +2585,38 @@
         <v>13</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>116</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="D55" s="4">
         <v>48.45</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F55" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A56" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="B56" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>119</v>
       </c>
       <c r="D56" s="4">
         <v>374.2</v>
@@ -2625,18 +2625,18 @@
         <v>13</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A57" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>120</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="D57" s="4">
         <v>56.32</v>
@@ -2645,18 +2645,18 @@
         <v>20</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="58" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>122</v>
+        <v>363</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D58" s="4">
         <v>68.2</v>
@@ -2665,18 +2665,18 @@
         <v>20</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="59" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D59" s="4">
         <v>314.17</v>
@@ -2685,18 +2685,18 @@
         <v>13</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="60" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A60" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D60" s="4">
         <v>110</v>
@@ -2705,18 +2705,18 @@
         <v>13</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D61" s="4">
         <v>2307.6799999999998</v>
@@ -2725,18 +2725,18 @@
         <v>13</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="62" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A62" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D62" s="4">
         <v>92.33</v>
@@ -2745,18 +2745,18 @@
         <v>20</v>
       </c>
       <c r="F62" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>7</v>
@@ -2765,18 +2765,18 @@
         <v>13</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="64" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A64" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D64" s="4">
         <v>1017.19</v>
@@ -2785,18 +2785,18 @@
         <v>13</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="65" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A65" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D65" s="4">
         <v>272.17</v>
@@ -2805,18 +2805,18 @@
         <v>13</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D66" s="4">
         <v>746</v>
@@ -2825,18 +2825,18 @@
         <v>13</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="67" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A67" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D67" s="4">
         <v>323.42</v>
@@ -2845,18 +2845,18 @@
         <v>13</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D68" s="4">
         <v>196.8</v>
@@ -2865,18 +2865,18 @@
         <v>13</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="69" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D69" s="4">
         <v>465.52</v>
@@ -2885,18 +2885,18 @@
         <v>13</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="70" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D70" s="4">
         <v>240.85</v>
@@ -2905,18 +2905,18 @@
         <v>13</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D71" s="4">
         <v>358.31</v>
@@ -2925,18 +2925,18 @@
         <v>13</v>
       </c>
       <c r="F71" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D72" s="4">
         <v>13.56</v>
@@ -2945,18 +2945,18 @@
         <v>20</v>
       </c>
       <c r="F72" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="73" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D73" s="4">
         <v>261.88</v>
@@ -2965,18 +2965,18 @@
         <v>13</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D74" s="4">
         <v>67.150000000000006</v>
@@ -2985,18 +2985,18 @@
         <v>13</v>
       </c>
       <c r="F74" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="75" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D75" s="4">
         <v>69.2</v>
@@ -3005,18 +3005,18 @@
         <v>20</v>
       </c>
       <c r="F75" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D76" s="4">
         <v>365.78</v>
@@ -3025,18 +3025,18 @@
         <v>13</v>
       </c>
       <c r="F76" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A77" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D77" s="4">
         <v>613.30999999999995</v>
@@ -3045,18 +3045,18 @@
         <v>13</v>
       </c>
       <c r="F77" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A78" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D78" s="4">
         <v>669.94</v>
@@ -3065,18 +3065,18 @@
         <v>13</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D79" s="4">
         <v>487.14</v>
@@ -3085,18 +3085,18 @@
         <v>13</v>
       </c>
       <c r="F79" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="80" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D80" s="4">
         <v>281.82</v>
@@ -3105,18 +3105,18 @@
         <v>13</v>
       </c>
       <c r="F80" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D81" s="4">
         <v>301.14</v>
@@ -3125,38 +3125,38 @@
         <v>13</v>
       </c>
       <c r="F81" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="82" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D82" s="4">
         <v>74.930000000000007</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="83" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A83" s="3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D83" s="4">
         <v>797.1</v>
@@ -3165,18 +3165,18 @@
         <v>13</v>
       </c>
       <c r="F83" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="84" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D84" s="4">
         <v>247.46</v>
@@ -3185,18 +3185,18 @@
         <v>13</v>
       </c>
       <c r="F84" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="85" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D85" s="4">
         <v>664.49</v>
@@ -3205,18 +3205,18 @@
         <v>13</v>
       </c>
       <c r="F85" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="86" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A86" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D86" s="4">
         <v>97.32</v>
@@ -3225,18 +3225,18 @@
         <v>13</v>
       </c>
       <c r="F86" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="87" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A87" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D87" s="4">
         <v>240.31</v>
@@ -3245,18 +3245,18 @@
         <v>13</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="88" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D88" s="4">
         <v>667.2</v>
@@ -3265,18 +3265,18 @@
         <v>13</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D89" s="4">
         <v>92.5</v>
@@ -3285,18 +3285,18 @@
         <v>13</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="90" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A90" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D90" s="4">
         <v>385.8</v>
@@ -3305,18 +3305,18 @@
         <v>13</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="91" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A91" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D91" s="4">
         <v>95</v>
@@ -3325,18 +3325,18 @@
         <v>13</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="92" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A92" s="3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D92" s="4">
         <v>302.33</v>
@@ -3345,18 +3345,18 @@
         <v>13</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="93" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D93" s="4">
         <v>400</v>
@@ -3365,18 +3365,18 @@
         <v>13</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="94" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D94" s="4">
         <v>350</v>
@@ -3385,18 +3385,18 @@
         <v>13</v>
       </c>
       <c r="F94" s="3" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D95" s="4">
         <v>190</v>
@@ -3405,18 +3405,18 @@
         <v>13</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A96" s="3" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D96" s="4" t="s">
         <v>7</v>
@@ -3425,18 +3425,18 @@
         <v>13</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A97" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D97" s="4">
         <v>486.5</v>
@@ -3445,18 +3445,18 @@
         <v>13</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="98" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A98" s="3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D98" s="4" t="s">
         <v>7</v>
@@ -3465,18 +3465,18 @@
         <v>13</v>
       </c>
       <c r="F98" s="3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D99" s="4">
         <v>13.96</v>
@@ -3485,18 +3485,18 @@
         <v>13</v>
       </c>
       <c r="F99" s="3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="100" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D100" s="4">
         <v>924.33</v>
@@ -3505,18 +3505,18 @@
         <v>13</v>
       </c>
       <c r="F100" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A101" s="3" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D101" s="4">
         <v>300</v>
@@ -3525,18 +3525,18 @@
         <v>13</v>
       </c>
       <c r="F101" s="3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D102" s="4">
         <v>600.01</v>
@@ -3545,18 +3545,18 @@
         <v>13</v>
       </c>
       <c r="F102" s="3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A103" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D103" s="4" t="s">
         <v>7</v>
@@ -3565,18 +3565,18 @@
         <v>13</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="104" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D104" s="4">
         <v>400</v>
@@ -3585,18 +3585,18 @@
         <v>13</v>
       </c>
       <c r="F104" s="3" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="105" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A105" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D105" s="4">
         <v>250</v>
@@ -3605,18 +3605,18 @@
         <v>13</v>
       </c>
       <c r="F105" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="106" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A106" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D106" s="4">
         <v>200</v>
@@ -3625,18 +3625,18 @@
         <v>13</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="107" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A107" s="3" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D107" s="4">
         <v>1174.18</v>
@@ -3645,18 +3645,18 @@
         <v>13</v>
       </c>
       <c r="F107" s="3" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="108" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A108" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D108" s="4" t="s">
         <v>7</v>
@@ -3665,18 +3665,18 @@
         <v>13</v>
       </c>
       <c r="F108" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="109" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D109" s="4">
         <v>150</v>
@@ -3685,18 +3685,18 @@
         <v>13</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A110" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D110" s="4" t="s">
         <v>7</v>
@@ -3705,38 +3705,38 @@
         <v>13</v>
       </c>
       <c r="F110" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D111" s="4">
         <v>450</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F111" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D112" s="4">
         <v>546.01</v>
@@ -3745,18 +3745,18 @@
         <v>13</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="113" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D113" s="4">
         <v>224.01</v>
@@ -3765,18 +3765,18 @@
         <v>13</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="114" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D114" s="4" t="s">
         <v>7</v>
@@ -3785,18 +3785,18 @@
         <v>13</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="115" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D115" s="4">
         <v>230</v>
@@ -3805,36 +3805,36 @@
         <v>13</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="116" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="117" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D117" s="4">
         <v>244.45</v>
@@ -3843,18 +3843,18 @@
         <v>13</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="118" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D118" s="4">
         <v>450</v>
@@ -3863,18 +3863,18 @@
         <v>13</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="119" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D119" s="4">
         <v>60</v>
@@ -3883,18 +3883,18 @@
         <v>13</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="120" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D120" s="4">
         <v>80</v>
@@ -3903,18 +3903,18 @@
         <v>13</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="121" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D121" s="4">
         <v>1444.4</v>
@@ -3923,38 +3923,38 @@
         <v>13</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="122" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B122" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D122" s="4">
         <v>150</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="123" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B123" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D123" s="4">
         <v>1000.02</v>
@@ -3963,38 +3963,38 @@
         <v>13</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="124" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B124" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D124" s="4">
         <v>562.49</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="125" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B125" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D125" s="4">
         <v>60</v>
@@ -4003,18 +4003,18 @@
         <v>13</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="126" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B126" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D126" s="4">
         <v>56</v>
@@ -4023,18 +4023,18 @@
         <v>13</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="127" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B127" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D127" s="4">
         <v>250</v>
@@ -4043,18 +4043,18 @@
         <v>13</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="128" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B128" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>7</v>
@@ -4063,18 +4063,18 @@
         <v>20</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="129" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D129" s="4">
         <v>350</v>
@@ -4083,18 +4083,18 @@
         <v>13</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="130" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B130" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D130" s="4">
         <v>747.71</v>
@@ -4103,18 +4103,18 @@
         <v>13</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D131" s="4">
         <v>350.01</v>
@@ -4123,18 +4123,18 @@
         <v>13</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="132" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B132" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D132" s="4" t="s">
         <v>7</v>
@@ -4143,18 +4143,18 @@
         <v>13</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D133" s="4">
         <v>400</v>
@@ -4163,18 +4163,18 @@
         <v>13</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B134" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D134" s="4">
         <v>150</v>
@@ -4183,18 +4183,18 @@
         <v>13</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="135" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>7</v>
@@ -4203,18 +4203,18 @@
         <v>20</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="136" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B136" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D136" s="4">
         <v>250</v>
@@ -4223,18 +4223,18 @@
         <v>13</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D137" s="4">
         <v>230</v>
@@ -4243,18 +4243,18 @@
         <v>13</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B138" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D138" s="4">
         <v>175</v>
@@ -4263,38 +4263,38 @@
         <v>13</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D139" s="4">
         <v>200</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B140" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D140" s="4">
         <v>40</v>
@@ -4303,18 +4303,18 @@
         <v>13</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="141" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D141" s="4">
         <v>1000</v>
@@ -4323,18 +4323,18 @@
         <v>13</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="142" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B142" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D142" s="4">
         <v>200</v>
@@ -4343,18 +4343,18 @@
         <v>13</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="143" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D143" s="4">
         <v>600</v>
@@ -4363,18 +4363,18 @@
         <v>13</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="144" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B144" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D144" s="4">
         <v>900.63</v>
@@ -4383,18 +4383,18 @@
         <v>13</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="145" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B145" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D145" s="4">
         <v>200</v>
@@ -4403,18 +4403,18 @@
         <v>13</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="146" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B146" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D146" s="4">
         <v>400</v>
@@ -4423,18 +4423,18 @@
         <v>13</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="147" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B147" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D147" s="4">
         <v>570.63</v>
@@ -4443,18 +4443,18 @@
         <v>13</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B148" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D148" s="4">
         <v>424.62</v>
@@ -4463,18 +4463,18 @@
         <v>13</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="149" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B149" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D149" s="4">
         <v>420</v>
@@ -4483,18 +4483,18 @@
         <v>13</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="150" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B150" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D150" s="4">
         <v>500</v>
@@ -4503,18 +4503,18 @@
         <v>13</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="151" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B151" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D151" s="4">
         <v>400</v>
@@ -4523,18 +4523,18 @@
         <v>13</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="152" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B152" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D152" s="4">
         <v>400</v>
@@ -4543,18 +4543,18 @@
         <v>13</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="153" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B153" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D153" s="4">
         <v>350</v>
@@ -4563,18 +4563,18 @@
         <v>13</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="154" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B154" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D154" s="4">
         <v>150</v>
@@ -4583,18 +4583,18 @@
         <v>13</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="155" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D155" s="4">
         <v>8</v>
@@ -4603,18 +4603,18 @@
         <v>20</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="156" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D156" s="4">
         <v>7.5</v>
@@ -4623,16 +4623,16 @@
         <v>20</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="157" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D157" s="4">
         <v>630.01</v>
@@ -4641,18 +4641,18 @@
         <v>13</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="158" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B158" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D158" s="4">
         <v>328.3</v>
@@ -4661,18 +4661,18 @@
         <v>13</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="159" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B159" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D159" s="4" t="s">
         <v>7</v>
@@ -4681,38 +4681,38 @@
         <v>13</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="160" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B160" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D160" s="4">
         <v>105.57</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="161" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B161" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D161" s="4">
         <v>500</v>
@@ -4721,18 +4721,18 @@
         <v>13</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="162" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B162" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D162" s="4">
         <v>1800</v>
@@ -4741,18 +4741,18 @@
         <v>13</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="163" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B163" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D163" s="4">
         <v>700.08</v>
@@ -4761,18 +4761,18 @@
         <v>13</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="164" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B164" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D164" s="4">
         <v>650</v>
@@ -4781,18 +4781,18 @@
         <v>13</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="165" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B165" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D165" s="4">
         <v>211.11</v>
@@ -4801,18 +4801,18 @@
         <v>13</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="166" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B166" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D166" s="4">
         <v>380</v>
@@ -4821,38 +4821,38 @@
         <v>20</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="167" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B167" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D167" s="4">
         <v>110</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="168" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D168" s="4">
         <v>100</v>
@@ -4861,38 +4861,38 @@
         <v>20</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="169" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="170" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="D170" s="4">
         <v>250</v>
@@ -4901,18 +4901,18 @@
         <v>13</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="171" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>7</v>
@@ -4921,18 +4921,18 @@
         <v>20</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="172" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B172" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D172" s="4">
         <v>483.3</v>
@@ -4941,36 +4941,36 @@
         <v>13</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="173" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B173" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="174" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D174" s="4">
         <v>100</v>
@@ -4979,18 +4979,18 @@
         <v>13</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="175" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B175" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D175" s="4">
         <v>100</v>
@@ -4999,18 +4999,18 @@
         <v>13</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="176" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B176" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D176" s="4">
         <v>175</v>
@@ -5019,18 +5019,18 @@
         <v>13</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="177" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B177" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D177" s="4">
         <v>458.31</v>
@@ -5039,18 +5039,18 @@
         <v>13</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="178" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B178" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D178" s="4">
         <v>200</v>
@@ -5059,7 +5059,7 @@
         <v>13</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>

--- a/Каталог.xlsx
+++ b/Каталог.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Yen\Sbis_Auto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9B21CA7-35FD-41ED-B7FF-595AECEB1F4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0265DDA6-A3AA-452D-BB09-64E69FEEF976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -709,9 +709,6 @@
     <t>X5234723</t>
   </si>
   <si>
-    <t>КОЛБАСКИ ОХОТНИЧИЕ</t>
-  </si>
-  <si>
     <t>X5230572</t>
   </si>
   <si>
@@ -1115,6 +1112,9 @@
   </si>
   <si>
     <t>КОТЛЕТА ГОВЯЖЬЯ БУРГЕР П/Ф</t>
+  </si>
+  <si>
+    <t>КОЛБАСКИ ОХОТНИЧЬИ</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1495,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A62" sqref="A62"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelRow="2" x14ac:dyDescent="0.35"/>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="8" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>7</v>
@@ -2650,7 +2650,7 @@
     </row>
     <row r="58" spans="1:6" outlineLevel="2" x14ac:dyDescent="0.35">
       <c r="A58" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>7</v>
@@ -3730,13 +3730,13 @@
     </row>
     <row r="112" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B112" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>228</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C112" s="3" t="s">
-        <v>229</v>
       </c>
       <c r="D112" s="4">
         <v>546.01</v>
@@ -3745,18 +3745,18 @@
         <v>13</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="113" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A113" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>230</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" s="3" t="s">
-        <v>231</v>
       </c>
       <c r="D113" s="4">
         <v>224.01</v>
@@ -3765,19 +3765,19 @@
         <v>13</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="114" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A114" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B114" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="B114" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>233</v>
-      </c>
       <c r="D114" s="4" t="s">
         <v>7</v>
       </c>
@@ -3785,18 +3785,18 @@
         <v>13</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="115" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B115" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>234</v>
-      </c>
-      <c r="B115" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>235</v>
       </c>
       <c r="D115" s="4">
         <v>230</v>
@@ -3805,36 +3805,36 @@
         <v>13</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="116" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A116" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="B116" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>237</v>
       </c>
       <c r="D116" s="4"/>
       <c r="E116" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="117" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>238</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C117" s="3" t="s">
-        <v>239</v>
       </c>
       <c r="D117" s="4">
         <v>244.45</v>
@@ -3843,18 +3843,18 @@
         <v>13</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="118" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A118" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="B118" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>241</v>
       </c>
       <c r="D118" s="4">
         <v>450</v>
@@ -3863,18 +3863,18 @@
         <v>13</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="119" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119" s="3" t="s">
         <v>242</v>
-      </c>
-      <c r="B119" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>243</v>
       </c>
       <c r="D119" s="4">
         <v>60</v>
@@ -3883,18 +3883,18 @@
         <v>13</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="120" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A120" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B120" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>244</v>
-      </c>
-      <c r="B120" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>245</v>
       </c>
       <c r="D120" s="4">
         <v>80</v>
@@ -3903,18 +3903,18 @@
         <v>13</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="121" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B121" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="D121" s="4">
         <v>1444.4</v>
@@ -3923,18 +3923,18 @@
         <v>13</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="122" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A122" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>248</v>
-      </c>
-      <c r="B122" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C122" s="3" t="s">
-        <v>249</v>
       </c>
       <c r="D122" s="4">
         <v>150</v>
@@ -3943,18 +3943,18 @@
         <v>34</v>
       </c>
       <c r="F122" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="123" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A123" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B123" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>250</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>251</v>
       </c>
       <c r="D123" s="4">
         <v>1000.02</v>
@@ -3963,18 +3963,18 @@
         <v>13</v>
       </c>
       <c r="F123" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="124" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B124" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>252</v>
-      </c>
-      <c r="B124" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>253</v>
       </c>
       <c r="D124" s="4">
         <v>562.49</v>
@@ -3983,18 +3983,18 @@
         <v>34</v>
       </c>
       <c r="F124" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>254</v>
-      </c>
-      <c r="B125" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>255</v>
       </c>
       <c r="D125" s="4">
         <v>60</v>
@@ -4003,18 +4003,18 @@
         <v>13</v>
       </c>
       <c r="F125" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="126" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A126" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="B126" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>256</v>
-      </c>
-      <c r="B126" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>257</v>
       </c>
       <c r="D126" s="4">
         <v>56</v>
@@ -4023,18 +4023,18 @@
         <v>13</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="127" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A127" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B127" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>258</v>
-      </c>
-      <c r="B127" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>259</v>
       </c>
       <c r="D127" s="4">
         <v>250</v>
@@ -4043,18 +4043,18 @@
         <v>13</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A128" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B128" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>260</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>261</v>
       </c>
       <c r="D128" s="4" t="s">
         <v>7</v>
@@ -4063,18 +4063,18 @@
         <v>20</v>
       </c>
       <c r="F128" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A129" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B129" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>262</v>
-      </c>
-      <c r="B129" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>263</v>
       </c>
       <c r="D129" s="4">
         <v>350</v>
@@ -4083,18 +4083,18 @@
         <v>13</v>
       </c>
       <c r="F129" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B130" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="B130" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>265</v>
       </c>
       <c r="D130" s="4">
         <v>747.71</v>
@@ -4103,18 +4103,18 @@
         <v>13</v>
       </c>
       <c r="F130" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A131" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="B131" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="B131" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="D131" s="4">
         <v>350.01</v>
@@ -4123,19 +4123,19 @@
         <v>13</v>
       </c>
       <c r="F131" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A132" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B132" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="B132" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>269</v>
-      </c>
       <c r="D132" s="4" t="s">
         <v>7</v>
       </c>
@@ -4143,18 +4143,18 @@
         <v>13</v>
       </c>
       <c r="F132" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B133" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>270</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>271</v>
       </c>
       <c r="D133" s="4">
         <v>400</v>
@@ -4163,18 +4163,18 @@
         <v>13</v>
       </c>
       <c r="F133" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A134" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B134" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="D134" s="4">
         <v>150</v>
@@ -4183,18 +4183,18 @@
         <v>13</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="135" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A135" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135" s="3" t="s">
         <v>274</v>
-      </c>
-      <c r="B135" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>275</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>7</v>
@@ -4203,18 +4203,18 @@
         <v>20</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A136" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>276</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>277</v>
       </c>
       <c r="D136" s="4">
         <v>250</v>
@@ -4223,18 +4223,18 @@
         <v>13</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="137" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A137" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>278</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="D137" s="4">
         <v>230</v>
@@ -4243,18 +4243,18 @@
         <v>13</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A138" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B138" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>280</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>281</v>
       </c>
       <c r="D138" s="4">
         <v>175</v>
@@ -4263,18 +4263,18 @@
         <v>13</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="139" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A139" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B139" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>282</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>283</v>
       </c>
       <c r="D139" s="4">
         <v>200</v>
@@ -4283,18 +4283,18 @@
         <v>34</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="140" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A140" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>284</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>285</v>
       </c>
       <c r="D140" s="4">
         <v>40</v>
@@ -4303,18 +4303,18 @@
         <v>13</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A141" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C141" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="B141" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>287</v>
       </c>
       <c r="D141" s="4">
         <v>1000</v>
@@ -4323,18 +4323,18 @@
         <v>13</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="142" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A142" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B142" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>288</v>
-      </c>
-      <c r="B142" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>289</v>
       </c>
       <c r="D142" s="4">
         <v>200</v>
@@ -4343,18 +4343,18 @@
         <v>13</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="143" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A143" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B143" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>290</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>291</v>
       </c>
       <c r="D143" s="4">
         <v>600</v>
@@ -4363,18 +4363,18 @@
         <v>13</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="144" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A144" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B144" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>292</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>293</v>
       </c>
       <c r="D144" s="4">
         <v>900.63</v>
@@ -4383,18 +4383,18 @@
         <v>13</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="145" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A145" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B145" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="B145" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>295</v>
       </c>
       <c r="D145" s="4">
         <v>200</v>
@@ -4403,18 +4403,18 @@
         <v>13</v>
       </c>
       <c r="F145" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="146" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A146" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B146" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>296</v>
-      </c>
-      <c r="B146" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>297</v>
       </c>
       <c r="D146" s="4">
         <v>400</v>
@@ -4423,18 +4423,18 @@
         <v>13</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="147" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A147" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B147" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="B147" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>299</v>
       </c>
       <c r="D147" s="4">
         <v>570.63</v>
@@ -4443,18 +4443,18 @@
         <v>13</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="148" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A148" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>300</v>
-      </c>
-      <c r="B148" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>301</v>
       </c>
       <c r="D148" s="4">
         <v>424.62</v>
@@ -4463,18 +4463,18 @@
         <v>13</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="149" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A149" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="B149" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>303</v>
       </c>
       <c r="D149" s="4">
         <v>420</v>
@@ -4483,18 +4483,18 @@
         <v>13</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="150" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A150" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B150" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>304</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>305</v>
       </c>
       <c r="D150" s="4">
         <v>500</v>
@@ -4503,18 +4503,18 @@
         <v>13</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="151" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A151" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B151" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>306</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>307</v>
       </c>
       <c r="D151" s="4">
         <v>400</v>
@@ -4523,18 +4523,18 @@
         <v>13</v>
       </c>
       <c r="F151" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="152" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A152" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>308</v>
-      </c>
-      <c r="B152" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>309</v>
       </c>
       <c r="D152" s="4">
         <v>400</v>
@@ -4543,18 +4543,18 @@
         <v>13</v>
       </c>
       <c r="F152" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="153" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A153" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="D153" s="4">
         <v>350</v>
@@ -4563,18 +4563,18 @@
         <v>13</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="154" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A154" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B154" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>312</v>
-      </c>
-      <c r="B154" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>313</v>
       </c>
       <c r="D154" s="4">
         <v>150</v>
@@ -4583,18 +4583,18 @@
         <v>13</v>
       </c>
       <c r="F154" s="3" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="155" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A155" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B155" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D155" s="4">
         <v>8</v>
@@ -4603,18 +4603,18 @@
         <v>20</v>
       </c>
       <c r="F155" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="156" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A156" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B156" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D156" s="4">
         <v>7.5</v>
@@ -4623,16 +4623,16 @@
         <v>20</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="157" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A157" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B157" s="4"/>
       <c r="C157" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D157" s="4">
         <v>630.01</v>
@@ -4641,18 +4641,18 @@
         <v>13</v>
       </c>
       <c r="F157" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="158" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A158" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="B158" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>319</v>
       </c>
       <c r="D158" s="4">
         <v>328.3</v>
@@ -4661,19 +4661,19 @@
         <v>13</v>
       </c>
       <c r="F158" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="159" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A159" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="B159" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>321</v>
-      </c>
       <c r="D159" s="4" t="s">
         <v>7</v>
       </c>
@@ -4681,18 +4681,18 @@
         <v>13</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="160" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A160" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B160" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="D160" s="4">
         <v>105.57</v>
@@ -4701,18 +4701,18 @@
         <v>34</v>
       </c>
       <c r="F160" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="161" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A161" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>325</v>
       </c>
       <c r="D161" s="4">
         <v>500</v>
@@ -4721,18 +4721,18 @@
         <v>13</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="162" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A162" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="D162" s="4">
         <v>1800</v>
@@ -4741,18 +4741,18 @@
         <v>13</v>
       </c>
       <c r="F162" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="163" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A163" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="D163" s="4">
         <v>700.08</v>
@@ -4761,18 +4761,18 @@
         <v>13</v>
       </c>
       <c r="F163" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="164" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A164" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>330</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>331</v>
       </c>
       <c r="D164" s="4">
         <v>650</v>
@@ -4781,18 +4781,18 @@
         <v>13</v>
       </c>
       <c r="F164" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="165" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A165" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="D165" s="4">
         <v>211.11</v>
@@ -4801,18 +4801,18 @@
         <v>13</v>
       </c>
       <c r="F165" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="166" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A166" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="D166" s="4">
         <v>380</v>
@@ -4821,18 +4821,18 @@
         <v>20</v>
       </c>
       <c r="F166" s="3" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="167" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A167" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>336</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>337</v>
       </c>
       <c r="D167" s="4">
         <v>110</v>
@@ -4841,18 +4841,18 @@
         <v>34</v>
       </c>
       <c r="F167" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="168" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A168" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B168" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D168" s="4">
         <v>100</v>
@@ -4861,18 +4861,18 @@
         <v>20</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="169" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A169" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B169" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D169" s="4" t="s">
         <v>7</v>
@@ -4881,18 +4881,18 @@
         <v>34</v>
       </c>
       <c r="F169" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="170" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A170" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B170" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D170" s="4">
         <v>250</v>
@@ -4901,18 +4901,18 @@
         <v>13</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="171" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A171" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B171" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D171" s="4" t="s">
         <v>7</v>
@@ -4921,18 +4921,18 @@
         <v>20</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="172" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A172" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>342</v>
-      </c>
-      <c r="B172" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>343</v>
       </c>
       <c r="D172" s="4">
         <v>483.3</v>
@@ -4941,18 +4941,18 @@
         <v>13</v>
       </c>
       <c r="F172" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="173" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A173" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="B173" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="D173" s="4" t="s">
         <v>7</v>
@@ -4961,16 +4961,16 @@
         <v>34</v>
       </c>
       <c r="F173" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="174" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A174" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B174" s="4"/>
       <c r="C174" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D174" s="4">
         <v>100</v>
@@ -4979,18 +4979,18 @@
         <v>13</v>
       </c>
       <c r="F174" s="3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="175" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A175" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>348</v>
-      </c>
-      <c r="B175" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>349</v>
       </c>
       <c r="D175" s="4">
         <v>100</v>
@@ -4999,18 +4999,18 @@
         <v>13</v>
       </c>
       <c r="F175" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="176" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A176" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>350</v>
-      </c>
-      <c r="B176" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>351</v>
       </c>
       <c r="D176" s="4">
         <v>175</v>
@@ -5019,18 +5019,18 @@
         <v>13</v>
       </c>
       <c r="F176" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="177" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A177" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="B177" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="D177" s="4">
         <v>458.31</v>
@@ -5039,18 +5039,18 @@
         <v>13</v>
       </c>
       <c r="F177" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="178" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.35">
       <c r="A178" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B178" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="B178" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>355</v>
       </c>
       <c r="D178" s="4">
         <v>200</v>
@@ -5059,7 +5059,7 @@
         <v>13</v>
       </c>
       <c r="F178" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
